--- a/docs/data/euro_wide.xlsx
+++ b/docs/data/euro_wide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3716AFF-4ED8-4287-906C-19B610847960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E17CA-2A77-4F98-802B-D042D5FCA665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8205" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-8250" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>batch_1</t>
   </si>
@@ -57,6 +57,42 @@
   </si>
   <si>
     <t>batch_8</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>The National Bank of Belgium claims that the 1 Euro coin weighs 7.5 grams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Belgian bank allowed students at Hasselt University to "borrow" 2000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newly-minted one-Euro coins. </t>
+  </si>
+  <si>
+    <t>Each coin was weighed individually, and the masses were recorded in grams.</t>
+  </si>
+  <si>
+    <t>Incidentally, the coins were bundled in eight batches of 250 coins each.</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>The Weight of Euro Coins: Its Distribution Might Not Be As Normal As You Would Expect</t>
+  </si>
+  <si>
+    <t>Ziv Shkedy, Marc Aerts, and Herman Callaert</t>
+  </si>
+  <si>
+    <t>Hasselt University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Statistics Education Volume 14, Number 2 (2006), </t>
+  </si>
+  <si>
+    <t>jse.amstat.org/v14n2/datasets.aerts.html</t>
   </si>
 </sst>
 </file>
@@ -438,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I1" sqref="I1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +485,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +510,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>7.5119999999999996</v>
       </c>
@@ -500,8 +539,11 @@
       <c r="H2">
         <v>7.52</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7.5019999999999998</v>
       </c>
@@ -526,8 +568,11 @@
       <c r="H3">
         <v>7.5860000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7.4610000000000003</v>
       </c>
@@ -552,8 +597,11 @@
       <c r="H4">
         <v>7.4909999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7.5620000000000003</v>
       </c>
@@ -578,8 +626,11 @@
       <c r="H5">
         <v>7.5289999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.5279999999999996</v>
       </c>
@@ -604,8 +655,11 @@
       <c r="H6">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7.4589999999999996</v>
       </c>
@@ -631,7 +685,7 @@
         <v>7.5359999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7.5179999999999998</v>
       </c>
@@ -656,8 +710,11 @@
       <c r="H8">
         <v>7.58</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7.5369999999999999</v>
       </c>
@@ -682,8 +739,11 @@
       <c r="H9">
         <v>7.5250000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7.5170000000000003</v>
       </c>
@@ -708,8 +768,11 @@
       <c r="H10">
         <v>7.5039999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7.6050000000000004</v>
       </c>
@@ -734,8 +797,11 @@
       <c r="H11">
         <v>7.4720000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7.5670000000000002</v>
       </c>
@@ -760,8 +826,11 @@
       <c r="H12">
         <v>7.492</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>7.5510000000000002</v>
       </c>
@@ -786,8 +855,11 @@
       <c r="H13">
         <v>7.5179999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7.4859999999999998</v>
       </c>
@@ -813,7 +885,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7.5279999999999996</v>
       </c>
@@ -839,7 +911,7 @@
         <v>7.5449999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7.5250000000000004</v>
       </c>
